--- a/Kit_montage_antiroll bar_a terminer.xlsx
+++ b/Kit_montage_antiroll bar_a terminer.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\EPSA_git\STUF2019\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C262E0E-9057-4CDC-B941-AEE45722B85A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0990D9F2-4F59-4DC3-A55F-CA59167609E3}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="6114" windowHeight="8154" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -186,12 +186,6 @@
     </r>
   </si>
   <si>
-    <t>Carrosserie</t>
-  </si>
-  <si>
-    <t>Josselin KIEFEL</t>
-  </si>
-  <si>
     <t>Barre avant</t>
   </si>
   <si>
@@ -250,6 +244,12 @@
   </si>
   <si>
     <t xml:space="preserve">Ecrous M6 </t>
+  </si>
+  <si>
+    <t>Barre anti-roulis</t>
+  </si>
+  <si>
+    <t>Erwan de Longcamp</t>
   </si>
 </sst>
 </file>
@@ -533,7 +533,15 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -546,16 +554,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -873,7 +873,7 @@
   <dimension ref="A1:I35"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showWhiteSpace="0" view="pageLayout" zoomScale="130" zoomScaleNormal="100" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -893,12 +893,12 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
+      <c r="B1" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
       <c r="F1" s="1"/>
       <c r="G1" s="7" t="s">
         <v>4</v>
@@ -914,35 +914,35 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.85">
-      <c r="A3" s="31" t="s">
+      <c r="A3" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="31"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
+      <c r="B3" s="25"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
       <c r="E3" s="20" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:9" s="3" customFormat="1" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="1">
-      <c r="A5" s="25" t="s">
+      <c r="A5" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="25"/>
-      <c r="C5" s="25"/>
-      <c r="D5" s="26"/>
+      <c r="B5" s="27"/>
+      <c r="C5" s="27"/>
+      <c r="D5" s="28"/>
       <c r="E5" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="27" t="s">
+      <c r="F5" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="28"/>
-      <c r="H5" s="28"/>
+      <c r="G5" s="30"/>
+      <c r="H5" s="30"/>
     </row>
     <row r="6" spans="1:9" s="3" customFormat="1" ht="19.8" customHeight="1" thickTop="1" x14ac:dyDescent="0.95">
       <c r="A6" s="22" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B6" s="17"/>
       <c r="C6" s="17"/>
@@ -965,7 +965,7 @@
     </row>
     <row r="7" spans="1:9" ht="19.8" customHeight="1" x14ac:dyDescent="0.95">
       <c r="A7" s="21" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
@@ -988,7 +988,7 @@
     </row>
     <row r="8" spans="1:9" ht="19.8" customHeight="1" x14ac:dyDescent="0.95">
       <c r="A8" s="21" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
@@ -1011,7 +1011,7 @@
     </row>
     <row r="9" spans="1:9" ht="19.8" customHeight="1" x14ac:dyDescent="0.95">
       <c r="A9" s="21" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
@@ -1034,7 +1034,7 @@
     </row>
     <row r="10" spans="1:9" ht="19.8" customHeight="1" x14ac:dyDescent="0.95">
       <c r="A10" s="21" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
@@ -1057,7 +1057,7 @@
     </row>
     <row r="11" spans="1:9" ht="19.8" customHeight="1" x14ac:dyDescent="0.95">
       <c r="A11" s="21" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
@@ -1080,7 +1080,7 @@
     </row>
     <row r="12" spans="1:9" ht="19.8" customHeight="1" x14ac:dyDescent="0.95">
       <c r="A12" s="21" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
@@ -1103,7 +1103,7 @@
     </row>
     <row r="13" spans="1:9" ht="19.8" customHeight="1" x14ac:dyDescent="0.95">
       <c r="A13" s="21" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
@@ -1126,7 +1126,7 @@
     </row>
     <row r="14" spans="1:9" ht="19.8" customHeight="1" x14ac:dyDescent="0.95">
       <c r="A14" s="21" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
@@ -1149,7 +1149,7 @@
     </row>
     <row r="15" spans="1:9" ht="19.8" customHeight="1" x14ac:dyDescent="0.95">
       <c r="A15" s="21" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
@@ -1172,7 +1172,7 @@
     </row>
     <row r="16" spans="1:9" ht="19.8" customHeight="1" x14ac:dyDescent="0.95">
       <c r="A16" s="21" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
@@ -1195,7 +1195,7 @@
     </row>
     <row r="17" spans="1:9" ht="19.8" customHeight="1" x14ac:dyDescent="0.95">
       <c r="A17" s="21" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
@@ -1218,7 +1218,7 @@
     </row>
     <row r="18" spans="1:9" ht="19.8" customHeight="1" x14ac:dyDescent="0.95">
       <c r="A18" s="21" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
@@ -1241,7 +1241,7 @@
     </row>
     <row r="19" spans="1:9" ht="19.8" customHeight="1" x14ac:dyDescent="0.95">
       <c r="A19" s="21" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
@@ -1264,7 +1264,7 @@
     </row>
     <row r="20" spans="1:9" ht="19.8" customHeight="1" x14ac:dyDescent="0.95">
       <c r="A20" s="21" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
@@ -1287,7 +1287,7 @@
     </row>
     <row r="21" spans="1:9" ht="19.8" customHeight="1" x14ac:dyDescent="0.95">
       <c r="A21" s="21" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
@@ -1392,25 +1392,25 @@
       <c r="H26" s="4"/>
     </row>
     <row r="27" spans="1:9" ht="19.8" customHeight="1" thickBot="1" x14ac:dyDescent="1">
-      <c r="A27" s="25" t="s">
+      <c r="A27" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="B27" s="26"/>
-      <c r="C27" s="25"/>
-      <c r="D27" s="26"/>
+      <c r="B27" s="28"/>
+      <c r="C27" s="27"/>
+      <c r="D27" s="28"/>
       <c r="E27" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="F27" s="27" t="s">
+      <c r="F27" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="G27" s="28"/>
-      <c r="H27" s="28"/>
+      <c r="G27" s="30"/>
+      <c r="H27" s="30"/>
       <c r="I27" s="3"/>
     </row>
     <row r="28" spans="1:9" ht="19.8" customHeight="1" thickTop="1" x14ac:dyDescent="0.95">
       <c r="A28" s="21" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B28" s="17"/>
       <c r="C28" s="17"/>
@@ -1421,17 +1421,17 @@
       <c r="F28" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="G28" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="H28" s="29"/>
+      <c r="G28" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="H28" s="32"/>
       <c r="I28" s="16" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="19.8" customHeight="1" x14ac:dyDescent="0.95">
       <c r="A29" s="23" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B29" s="10"/>
       <c r="C29" s="10"/>
@@ -1442,17 +1442,17 @@
       <c r="F29" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="G29" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="H29" s="24"/>
+      <c r="G29" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="H29" s="31"/>
       <c r="I29" s="13" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="19.8" customHeight="1" x14ac:dyDescent="0.95">
       <c r="A30" s="23" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B30" s="10"/>
       <c r="C30" s="10"/>
@@ -1463,17 +1463,17 @@
       <c r="F30" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="G30" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="H30" s="24"/>
+      <c r="G30" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="H30" s="31"/>
       <c r="I30" s="13" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="19.8" customHeight="1" x14ac:dyDescent="0.95">
       <c r="A31" s="23" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B31" s="10"/>
       <c r="C31" s="10"/>
@@ -1484,17 +1484,17 @@
       <c r="F31" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="G31" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="H31" s="24"/>
+      <c r="G31" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="H31" s="31"/>
       <c r="I31" s="13" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="19.8" customHeight="1" x14ac:dyDescent="0.95">
       <c r="A32" s="23" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B32" s="10"/>
       <c r="C32" s="10"/>
@@ -1505,10 +1505,10 @@
       <c r="F32" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="G32" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="H32" s="24"/>
+      <c r="G32" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="H32" s="31"/>
       <c r="I32" s="13" t="s">
         <v>6</v>
       </c>
@@ -1522,10 +1522,10 @@
       <c r="F33" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="G33" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="H33" s="24"/>
+      <c r="G33" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="H33" s="31"/>
       <c r="I33" s="13" t="s">
         <v>6</v>
       </c>
@@ -1553,11 +1553,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="G31:H31"/>
     <mergeCell ref="G32:H32"/>
     <mergeCell ref="G33:H33"/>
     <mergeCell ref="A27:D27"/>
@@ -1565,6 +1560,11 @@
     <mergeCell ref="G28:H28"/>
     <mergeCell ref="G29:H29"/>
     <mergeCell ref="G30:H30"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="G31:H31"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>

--- a/Kit_montage_antiroll bar_a terminer.xlsx
+++ b/Kit_montage_antiroll bar_a terminer.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\EPSA_git\STUF2019\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gameiro Nicolas\Documents\EPSA\STUF2019\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0990D9F2-4F59-4DC3-A55F-CA59167609E3}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="6114" windowHeight="8154" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="6110" windowHeight="8150"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -255,7 +254,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -533,15 +532,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -554,8 +545,16 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -869,36 +868,36 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I35"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showWhiteSpace="0" view="pageLayout" zoomScale="130" zoomScaleNormal="100" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageLayout" zoomScale="130" zoomScaleNormal="100" zoomScalePageLayoutView="130" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.20703125" customWidth="1"/>
-    <col min="2" max="2" width="10.9453125" customWidth="1"/>
-    <col min="3" max="3" width="9.05078125" customWidth="1"/>
-    <col min="4" max="4" width="10.20703125" customWidth="1"/>
-    <col min="5" max="5" width="9.3125" customWidth="1"/>
-    <col min="6" max="6" width="21.9453125" customWidth="1"/>
-    <col min="7" max="7" width="8.05078125" customWidth="1"/>
-    <col min="8" max="8" width="9.26171875" customWidth="1"/>
-    <col min="9" max="9" width="9.47265625" customWidth="1"/>
+    <col min="1" max="1" width="10.1796875" customWidth="1"/>
+    <col min="2" max="2" width="10.90625" customWidth="1"/>
+    <col min="3" max="3" width="9.08984375" customWidth="1"/>
+    <col min="4" max="4" width="13" customWidth="1"/>
+    <col min="5" max="5" width="5.36328125" customWidth="1"/>
+    <col min="6" max="6" width="21.90625" customWidth="1"/>
+    <col min="7" max="7" width="8.08984375" customWidth="1"/>
+    <col min="8" max="8" width="9.26953125" customWidth="1"/>
+    <col min="9" max="9" width="9.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="25.8" x14ac:dyDescent="0.95">
+    <row r="1" spans="1:9" ht="26" x14ac:dyDescent="0.6">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
       <c r="F1" s="1"/>
       <c r="G1" s="7" t="s">
         <v>4</v>
@@ -908,39 +907,39 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="25.8" x14ac:dyDescent="0.95">
+    <row r="2" spans="1:9" ht="26" x14ac:dyDescent="0.6">
       <c r="G2" s="7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.85">
-      <c r="A3" s="25" t="s">
+    <row r="3" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="25"/>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
+      <c r="B3" s="31"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
       <c r="E3" s="20" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:9" s="3" customFormat="1" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="1">
-      <c r="A5" s="27" t="s">
+    <row r="5" spans="1:9" s="3" customFormat="1" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="A5" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="27"/>
-      <c r="C5" s="27"/>
-      <c r="D5" s="28"/>
+      <c r="B5" s="25"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="26"/>
       <c r="E5" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="29" t="s">
+      <c r="F5" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="30"/>
-      <c r="H5" s="30"/>
-    </row>
-    <row r="6" spans="1:9" s="3" customFormat="1" ht="19.8" customHeight="1" thickTop="1" x14ac:dyDescent="0.95">
+      <c r="G5" s="28"/>
+      <c r="H5" s="28"/>
+    </row>
+    <row r="6" spans="1:9" s="3" customFormat="1" ht="19.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.6">
       <c r="A6" s="22" t="s">
         <v>17</v>
       </c>
@@ -963,7 +962,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="19.8" customHeight="1" x14ac:dyDescent="0.95">
+    <row r="7" spans="1:9" ht="19.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A7" s="21" t="s">
         <v>18</v>
       </c>
@@ -986,7 +985,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="19.8" customHeight="1" x14ac:dyDescent="0.95">
+    <row r="8" spans="1:9" ht="19.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A8" s="21" t="s">
         <v>19</v>
       </c>
@@ -1009,7 +1008,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="19.8" customHeight="1" x14ac:dyDescent="0.95">
+    <row r="9" spans="1:9" ht="19.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A9" s="21" t="s">
         <v>20</v>
       </c>
@@ -1032,7 +1031,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="19.8" customHeight="1" x14ac:dyDescent="0.95">
+    <row r="10" spans="1:9" ht="19.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A10" s="21" t="s">
         <v>21</v>
       </c>
@@ -1055,7 +1054,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="19.8" customHeight="1" x14ac:dyDescent="0.95">
+    <row r="11" spans="1:9" ht="19.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A11" s="21" t="s">
         <v>22</v>
       </c>
@@ -1078,7 +1077,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="19.8" customHeight="1" x14ac:dyDescent="0.95">
+    <row r="12" spans="1:9" ht="19.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A12" s="21" t="s">
         <v>23</v>
       </c>
@@ -1101,7 +1100,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="19.8" customHeight="1" x14ac:dyDescent="0.95">
+    <row r="13" spans="1:9" ht="19.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A13" s="21" t="s">
         <v>24</v>
       </c>
@@ -1124,7 +1123,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="19.8" customHeight="1" x14ac:dyDescent="0.95">
+    <row r="14" spans="1:9" ht="19.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A14" s="21" t="s">
         <v>25</v>
       </c>
@@ -1147,7 +1146,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="19.8" customHeight="1" x14ac:dyDescent="0.95">
+    <row r="15" spans="1:9" ht="19.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A15" s="21" t="s">
         <v>26</v>
       </c>
@@ -1170,7 +1169,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="19.8" customHeight="1" x14ac:dyDescent="0.95">
+    <row r="16" spans="1:9" ht="19.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A16" s="21" t="s">
         <v>27</v>
       </c>
@@ -1193,7 +1192,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="19.8" customHeight="1" x14ac:dyDescent="0.95">
+    <row r="17" spans="1:9" ht="19.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A17" s="21" t="s">
         <v>28</v>
       </c>
@@ -1216,7 +1215,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="19.8" customHeight="1" x14ac:dyDescent="0.95">
+    <row r="18" spans="1:9" ht="19.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A18" s="21" t="s">
         <v>29</v>
       </c>
@@ -1239,7 +1238,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="19.8" customHeight="1" x14ac:dyDescent="0.95">
+    <row r="19" spans="1:9" ht="19.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A19" s="21" t="s">
         <v>30</v>
       </c>
@@ -1262,7 +1261,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="19.8" customHeight="1" x14ac:dyDescent="0.95">
+    <row r="20" spans="1:9" ht="19.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A20" s="21" t="s">
         <v>31</v>
       </c>
@@ -1285,7 +1284,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="19.8" customHeight="1" x14ac:dyDescent="0.95">
+    <row r="21" spans="1:9" ht="19.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A21" s="21" t="s">
         <v>32</v>
       </c>
@@ -1306,7 +1305,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="19.8" customHeight="1" x14ac:dyDescent="0.95">
+    <row r="22" spans="1:9" ht="19.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A22" s="5"/>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
@@ -1325,7 +1324,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="19.8" customHeight="1" x14ac:dyDescent="0.95">
+    <row r="23" spans="1:9" ht="19.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A23" s="5"/>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
@@ -1344,7 +1343,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="19.8" customHeight="1" x14ac:dyDescent="0.95">
+    <row r="24" spans="1:9" ht="19.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A24" s="5"/>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
@@ -1363,7 +1362,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="19.8" customHeight="1" x14ac:dyDescent="0.95">
+    <row r="25" spans="1:9" ht="19.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A25" s="5"/>
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
@@ -1382,7 +1381,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="19.8" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:9" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
@@ -1391,24 +1390,24 @@
       <c r="G26" s="4"/>
       <c r="H26" s="4"/>
     </row>
-    <row r="27" spans="1:9" ht="19.8" customHeight="1" thickBot="1" x14ac:dyDescent="1">
-      <c r="A27" s="27" t="s">
+    <row r="27" spans="1:9" ht="19.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="A27" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="B27" s="28"/>
-      <c r="C27" s="27"/>
-      <c r="D27" s="28"/>
+      <c r="B27" s="26"/>
+      <c r="C27" s="25"/>
+      <c r="D27" s="26"/>
       <c r="E27" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="F27" s="29" t="s">
+      <c r="F27" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="G27" s="30"/>
-      <c r="H27" s="30"/>
+      <c r="G27" s="28"/>
+      <c r="H27" s="28"/>
       <c r="I27" s="3"/>
     </row>
-    <row r="28" spans="1:9" ht="19.8" customHeight="1" thickTop="1" x14ac:dyDescent="0.95">
+    <row r="28" spans="1:9" ht="19.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.6">
       <c r="A28" s="21" t="s">
         <v>32</v>
       </c>
@@ -1421,15 +1420,15 @@
       <c r="F28" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="G28" s="32" t="s">
-        <v>5</v>
-      </c>
-      <c r="H28" s="32"/>
+      <c r="G28" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="H28" s="29"/>
       <c r="I28" s="16" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="19.8" customHeight="1" x14ac:dyDescent="0.95">
+    <row r="29" spans="1:9" ht="19.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A29" s="23" t="s">
         <v>34</v>
       </c>
@@ -1442,15 +1441,15 @@
       <c r="F29" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="G29" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="H29" s="31"/>
+      <c r="G29" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="H29" s="24"/>
       <c r="I29" s="13" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="19.8" customHeight="1" x14ac:dyDescent="0.95">
+    <row r="30" spans="1:9" ht="19.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A30" s="23" t="s">
         <v>33</v>
       </c>
@@ -1463,15 +1462,15 @@
       <c r="F30" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="G30" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="H30" s="31"/>
+      <c r="G30" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="H30" s="24"/>
       <c r="I30" s="13" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="19.8" customHeight="1" x14ac:dyDescent="0.95">
+    <row r="31" spans="1:9" ht="19.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A31" s="23" t="s">
         <v>35</v>
       </c>
@@ -1484,15 +1483,15 @@
       <c r="F31" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="G31" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="H31" s="31"/>
+      <c r="G31" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="H31" s="24"/>
       <c r="I31" s="13" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="19.8" customHeight="1" x14ac:dyDescent="0.95">
+    <row r="32" spans="1:9" ht="19.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A32" s="23" t="s">
         <v>36</v>
       </c>
@@ -1505,15 +1504,15 @@
       <c r="F32" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="G32" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="H32" s="31"/>
+      <c r="G32" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="H32" s="24"/>
       <c r="I32" s="13" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="19.8" customHeight="1" x14ac:dyDescent="0.95">
+    <row r="33" spans="1:9" ht="19.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A33" s="10"/>
       <c r="B33" s="10"/>
       <c r="C33" s="10"/>
@@ -1522,19 +1521,19 @@
       <c r="F33" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="G33" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="H33" s="31"/>
+      <c r="G33" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="H33" s="24"/>
       <c r="I33" s="13" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A34" s="4"/>
       <c r="B34" s="4"/>
     </row>
-    <row r="35" spans="1:9" ht="25.8" x14ac:dyDescent="0.95">
+    <row r="35" spans="1:9" ht="26" x14ac:dyDescent="0.6">
       <c r="A35" s="4" t="s">
         <v>12</v>
       </c>
@@ -1553,6 +1552,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="G31:H31"/>
     <mergeCell ref="G32:H32"/>
     <mergeCell ref="G33:H33"/>
     <mergeCell ref="A27:D27"/>
@@ -1560,11 +1564,6 @@
     <mergeCell ref="G28:H28"/>
     <mergeCell ref="G29:H29"/>
     <mergeCell ref="G30:H30"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="G31:H31"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
